--- a/PythonResources/Data/Consumption/Sympheny/post_1631_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1631_hea.xlsx
@@ -615,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>7.885808972780149</v>
+        <v>7.885808972780148</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>9.727350151312578</v>
+        <v>9.727350151312576</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -735,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>43.93076255325834</v>
+        <v>43.93076255325833</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>44.54474637925386</v>
+        <v>44.54474637925385</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -767,7 +767,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>43.45393597335633</v>
+        <v>43.45393597335632</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -791,7 +791,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>2.079872408592609</v>
+        <v>2.079872408592608</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.5063886555717787</v>
+        <v>0.5063886555717786</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>6.160910067634935</v>
+        <v>6.160910067634934</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>26.28703611983324</v>
+        <v>26.28703611983323</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>0.6631845919659851</v>
+        <v>0.663184591965985</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>16.11849682691987</v>
+        <v>16.11849682691986</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>70.29982925681288</v>
+        <v>70.29982925681287</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>48.87575018859122</v>
+        <v>48.87575018859121</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>54.66624777046208</v>
+        <v>54.66624777046207</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>56.83438731447871</v>
+        <v>56.8343873144787</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>57.45335334813147</v>
+        <v>57.45335334813146</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>4.986339958887995</v>
+        <v>4.986339958887994</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>37.43396376821364</v>
+        <v>37.43396376821363</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>46.3966622725549</v>
+        <v>46.39666227255489</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>51.22178385307529</v>
+        <v>51.22178385307528</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>54.96957629547657</v>
+        <v>54.96957629547656</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>4.823216618769091</v>
+        <v>4.82321661876909</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>45.68068972510523</v>
+        <v>45.68068972510522</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>49.09994953316715</v>
+        <v>49.09994953316714</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>60.99511685035383</v>
+        <v>60.99511685035382</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>66.33311274853158</v>
+        <v>66.33311274853156</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>63.37954282090254</v>
+        <v>63.37954282090253</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>61.49128611880749</v>
+        <v>61.49128611880748</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>7.27258713148515</v>
+        <v>7.272587131485149</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>37.02659502447437</v>
+        <v>37.02659502447436</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>4.572230581259515</v>
+        <v>4.572230581259514</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>2.347534188202016</v>
+        <v>2.347534188202015</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>3.929203415332657</v>
+        <v>3.929203415332656</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>0.8324682853175513</v>
+        <v>0.8324682853175512</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>0.4900352916144756</v>
+        <v>0.4900352916144755</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>19.38216522055648</v>
+        <v>19.38216522055647</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>29.25303225950152</v>
+        <v>29.25303225950151</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>31.87059624130532</v>
+        <v>31.87059624130531</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>0.9979332630353605</v>
+        <v>0.9979332630353602</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>1.931385036144452</v>
+        <v>1.931385036144451</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>0.4824066524781208</v>
+        <v>0.4824066524781207</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>25.19326569644523</v>
+        <v>25.19326569644522</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>66.25163899978372</v>
+        <v>66.25163899978371</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>15.5826164327276</v>
+        <v>15.58261643272759</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>14.81488753985034</v>
+        <v>14.81488753985033</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>383</v>
       </c>
       <c r="B383">
-        <v>43.27076657419299</v>
+        <v>43.27076657419298</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>51.34663211554502</v>
+        <v>51.34663211554501</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>62.72189141014648</v>
+        <v>62.72189141014647</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>30.1534930257885</v>
+        <v>30.15349302578849</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>402</v>
       </c>
       <c r="B402">
-        <v>43.1766907707827</v>
+        <v>43.17669077078269</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>84.31741703598503</v>
+        <v>84.31741703598502</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>88.73722137003678</v>
+        <v>88.73722137003676</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>445</v>
       </c>
       <c r="B445">
-        <v>73.66311249649048</v>
+        <v>73.66311249649047</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>446</v>
       </c>
       <c r="B446">
-        <v>75.99713024838944</v>
+        <v>75.99713024838942</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>63.16061875502251</v>
+        <v>63.1606187550225</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>88.59273734797674</v>
+        <v>88.59273734797672</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>82.49539438862745</v>
+        <v>82.49539438862743</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>494</v>
       </c>
       <c r="B494">
-        <v>24.6202238945507</v>
+        <v>24.62022389455069</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>85.66525074278856</v>
+        <v>85.66525074278854</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>79.00081532362957</v>
+        <v>79.00081532362955</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>71.06415852564167</v>
+        <v>71.06415852564166</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>536</v>
       </c>
       <c r="B536">
-        <v>55.41768191358977</v>
+        <v>55.41768191358976</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>540</v>
       </c>
       <c r="B540">
-        <v>78.08350297261956</v>
+        <v>78.08350297261954</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>541</v>
       </c>
       <c r="B541">
-        <v>69.98448481921328</v>
+        <v>69.98448481921326</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>99.42259143962944</v>
+        <v>99.4225914396294</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>568</v>
       </c>
       <c r="B568">
-        <v>63.1758584490329</v>
+        <v>63.17585844903289</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>569</v>
       </c>
       <c r="B569">
-        <v>67.11268171137075</v>
+        <v>67.11268171137074</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>573</v>
       </c>
       <c r="B573">
-        <v>86.85951522533354</v>
+        <v>86.85951522533352</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>578</v>
       </c>
       <c r="B578">
-        <v>93.34634959506376</v>
+        <v>93.34634959506374</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>62.25590845867494</v>
+        <v>62.25590845867493</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>603</v>
       </c>
       <c r="B603">
-        <v>78.09082974858609</v>
+        <v>78.09082974858607</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>605</v>
       </c>
       <c r="B605">
-        <v>76.67471048977447</v>
+        <v>76.67471048977445</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>612</v>
       </c>
       <c r="B612">
-        <v>36.87361194229315</v>
+        <v>36.87361194229314</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>645</v>
       </c>
       <c r="B645">
-        <v>82.46550114268399</v>
+        <v>82.46550114268398</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>29.98409796544224</v>
+        <v>29.98409796544223</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>72.4119922324452</v>
+        <v>72.41199223244519</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>672</v>
       </c>
       <c r="B672">
-        <v>85.80768326757797</v>
+        <v>85.80768326757796</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>30.68717538719081</v>
+        <v>30.6871753871908</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>21.23915124282636</v>
+        <v>21.23915124282635</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5879,7 +5879,7 @@
         <v>692</v>
       </c>
       <c r="B692">
-        <v>61.94496008665525</v>
+        <v>61.94496008665524</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>693</v>
       </c>
       <c r="B693">
-        <v>53.55316396562629</v>
+        <v>53.55316396562628</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>714</v>
       </c>
       <c r="B714">
-        <v>25.41101747817061</v>
+        <v>25.4110174781706</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>65.45214120631557</v>
+        <v>65.45214120631556</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>738</v>
       </c>
       <c r="B738">
-        <v>19.74091347898183</v>
+        <v>19.74091347898182</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>739</v>
       </c>
       <c r="B739">
-        <v>57.01814285571938</v>
+        <v>57.01814285571937</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>742</v>
       </c>
       <c r="B742">
-        <v>52.99515670801509</v>
+        <v>52.99515670801508</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>743</v>
       </c>
       <c r="B743">
-        <v>58.434262114531</v>
+        <v>58.43426211453099</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>764</v>
       </c>
       <c r="B764">
-        <v>58.75019269420793</v>
+        <v>58.75019269420792</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>52.29178621522786</v>
+        <v>52.29178621522785</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>73.20474939202414</v>
+        <v>73.20474939202413</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>76.5243650469412</v>
+        <v>76.52436504694118</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>786</v>
       </c>
       <c r="B786">
-        <v>59.52214181004191</v>
+        <v>59.5221418100419</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6767,7 +6767,7 @@
         <v>803</v>
       </c>
       <c r="B803">
-        <v>44.90903368030991</v>
+        <v>44.9090336803099</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>805</v>
       </c>
       <c r="B805">
-        <v>52.08077506739169</v>
+        <v>52.08077506739168</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>825</v>
       </c>
       <c r="B825">
-        <v>54.86231229532652</v>
+        <v>54.86231229532651</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>843</v>
       </c>
       <c r="B843">
-        <v>130.7433864124061</v>
+        <v>130.743386412406</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7095,7 +7095,7 @@
         <v>844</v>
       </c>
       <c r="B844">
-        <v>132.4865729503638</v>
+        <v>132.4865729503637</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>134.1119449307796</v>
+        <v>134.1119449307795</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>848</v>
       </c>
       <c r="B848">
-        <v>61.1272918887901</v>
+        <v>61.12729188879009</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>47.33185195692325</v>
+        <v>47.33185195692324</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>885</v>
       </c>
       <c r="B885">
-        <v>67.135834323425</v>
+        <v>67.13583432342499</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>69.24008438101346</v>
+        <v>69.24008438101345</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>75.16334314339791</v>
+        <v>75.1633431433979</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>891</v>
       </c>
       <c r="B891">
-        <v>95.19885163044212</v>
+        <v>95.19885163044211</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7575,7 +7575,7 @@
         <v>904</v>
       </c>
       <c r="B904">
-        <v>26.51108892888984</v>
+        <v>26.51108892888983</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>54.73746403285679</v>
+        <v>54.73746403285678</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7639,7 +7639,7 @@
         <v>912</v>
       </c>
       <c r="B912">
-        <v>62.56451226238534</v>
+        <v>62.56451226238533</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>63.02258229581302</v>
+        <v>63.02258229581301</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7775,7 +7775,7 @@
         <v>929</v>
       </c>
       <c r="B929">
-        <v>26.05797179601553</v>
+        <v>26.05797179601552</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>931</v>
       </c>
       <c r="B931">
-        <v>78.56238104979219</v>
+        <v>78.56238104979218</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7855,7 +7855,7 @@
         <v>939</v>
       </c>
       <c r="B939">
-        <v>54.43472164991962</v>
+        <v>54.43472164991961</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>52.61797428125794</v>
+        <v>52.61797428125793</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7895,7 +7895,7 @@
         <v>944</v>
       </c>
       <c r="B944">
-        <v>3.612452236747474</v>
+        <v>3.612452236747473</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>946</v>
       </c>
       <c r="B946">
-        <v>7.420001863931806</v>
+        <v>7.420001863931805</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>951</v>
       </c>
       <c r="B951">
-        <v>8.513244759450224</v>
+        <v>8.513244759450222</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>955</v>
       </c>
       <c r="B955">
-        <v>54.67914289616318</v>
+        <v>54.67914289616317</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>960</v>
       </c>
       <c r="B960">
-        <v>42.64388762249637</v>
+        <v>42.64388762249636</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8047,7 +8047,7 @@
         <v>963</v>
       </c>
       <c r="B963">
-        <v>48.89098988260161</v>
+        <v>48.8909898826016</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>967</v>
       </c>
       <c r="B967">
-        <v>52.39641257602996</v>
+        <v>52.39641257602995</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>970</v>
       </c>
       <c r="B970">
-        <v>3.305313788230385</v>
+        <v>3.305313788230384</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>29.67695951692515</v>
+        <v>29.67695951692514</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>990</v>
       </c>
       <c r="B990">
-        <v>29.14957818285406</v>
+        <v>29.14957818285405</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>995</v>
       </c>
       <c r="B995">
-        <v>0.4901730350026465</v>
+        <v>0.4901730350026464</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>0.2939766281708089</v>
+        <v>0.2939766281708088</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>1002</v>
       </c>
       <c r="B1002">
-        <v>1.893271147566544</v>
+        <v>1.893271147566543</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>1031</v>
       </c>
       <c r="B1031">
-        <v>65.91050431078192</v>
+        <v>65.9105043107819</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>1034</v>
       </c>
       <c r="B1034">
-        <v>86.17197056863402</v>
+        <v>86.17197056863401</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>50.34813908682582</v>
+        <v>50.34813908682581</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8815,7 +8815,7 @@
         <v>1059</v>
       </c>
       <c r="B1059">
-        <v>65.65611864922387</v>
+        <v>65.65611864922386</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>1064</v>
       </c>
       <c r="B1064">
-        <v>5.336911535334696</v>
+        <v>5.336911535334695</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -9039,7 +9039,7 @@
         <v>1087</v>
       </c>
       <c r="B1087">
-        <v>50.90087106574112</v>
+        <v>50.90087106574111</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>65.38326951223016</v>
+        <v>65.38326951223014</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>38.95998466652326</v>
+        <v>38.95998466652325</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>1116</v>
       </c>
       <c r="B1116">
-        <v>42.90911691248489</v>
+        <v>42.90911691248488</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9279,7 +9279,7 @@
         <v>1117</v>
       </c>
       <c r="B1117">
-        <v>46.36618288453412</v>
+        <v>46.36618288453411</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>1149</v>
       </c>
       <c r="B1149">
-        <v>77.03372251213462</v>
+        <v>77.0337225121346</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9551,7 +9551,7 @@
         <v>1151</v>
       </c>
       <c r="B1151">
-        <v>72.26428442895988</v>
+        <v>72.26428442895987</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9583,7 +9583,7 @@
         <v>1155</v>
       </c>
       <c r="B1155">
-        <v>85.56589966068236</v>
+        <v>85.56589966068235</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -9687,7 +9687,7 @@
         <v>1168</v>
       </c>
       <c r="B1168">
-        <v>12.33799765660398</v>
+        <v>12.33799765660397</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>1174</v>
       </c>
       <c r="B1174">
-        <v>59.28299584249425</v>
+        <v>59.28299584249424</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9783,7 +9783,7 @@
         <v>1180</v>
       </c>
       <c r="B1180">
-        <v>79.74726725910001</v>
+        <v>79.7472672591</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -9807,7 +9807,7 @@
         <v>1183</v>
       </c>
       <c r="B1183">
-        <v>81.33629843072183</v>
+        <v>81.33629843072181</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -9887,7 +9887,7 @@
         <v>1193</v>
       </c>
       <c r="B1193">
-        <v>12.37703471895367</v>
+        <v>12.37703471895366</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -9895,7 +9895,7 @@
         <v>1194</v>
       </c>
       <c r="B1194">
-        <v>15.80643478495327</v>
+        <v>15.80643478495326</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -9911,7 +9911,7 @@
         <v>1196</v>
       </c>
       <c r="B1196">
-        <v>52.32783395298321</v>
+        <v>52.3278339529832</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>28.9621006394224</v>
+        <v>28.96210063942239</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>0.5756120349035885</v>
+        <v>0.5756120349035884</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10311,7 +10311,7 @@
         <v>1246</v>
       </c>
       <c r="B1246">
-        <v>7.615157868576397</v>
+        <v>7.615157868576396</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -10351,7 +10351,7 @@
         <v>1251</v>
       </c>
       <c r="B1251">
-        <v>22.63443315078916</v>
+        <v>22.63443315078915</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
@@ -10399,7 +10399,7 @@
         <v>1257</v>
       </c>
       <c r="B1257">
-        <v>0.8667370818682224</v>
+        <v>0.8667370818682223</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
@@ -10487,7 +10487,7 @@
         <v>1268</v>
       </c>
       <c r="B1268">
-        <v>23.79865785187135</v>
+        <v>23.79865785187134</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>1280</v>
       </c>
       <c r="B1280">
-        <v>0.5009609799357706</v>
+        <v>0.5009609799357705</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10615,7 +10615,7 @@
         <v>1284</v>
       </c>
       <c r="B1284">
-        <v>2.985104371388999</v>
+        <v>2.985104371388998</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -10623,7 +10623,7 @@
         <v>1285</v>
       </c>
       <c r="B1285">
-        <v>2.893496226124236</v>
+        <v>2.893496226124235</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -10639,7 +10639,7 @@
         <v>1287</v>
       </c>
       <c r="B1287">
-        <v>2.733010525353283</v>
+        <v>2.733010525353282</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10663,7 +10663,7 @@
         <v>1290</v>
       </c>
       <c r="B1290">
-        <v>3.50020602894018</v>
+        <v>3.500206028940179</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -10719,7 +10719,7 @@
         <v>1297</v>
       </c>
       <c r="B1297">
-        <v>26.27414099413214</v>
+        <v>26.27414099413213</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -10863,7 +10863,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>4.507960102481081</v>
+        <v>4.50796010248108</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -11071,7 +11071,7 @@
         <v>1341</v>
       </c>
       <c r="B1341">
-        <v>0.2780016189244176</v>
+        <v>0.2780016189244175</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -11271,7 +11271,7 @@
         <v>1366</v>
       </c>
       <c r="B1366">
-        <v>8.128618328311074</v>
+        <v>8.128618328311072</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>0.4640867818514001</v>
+        <v>0.4640867818514</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11447,7 +11447,7 @@
         <v>1388</v>
       </c>
       <c r="B1388">
-        <v>3.268738522605449</v>
+        <v>3.268738522605448</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11767,7 +11767,7 @@
         <v>1428</v>
       </c>
       <c r="B1428">
-        <v>9.043117197349936</v>
+        <v>9.043117197349934</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
@@ -11855,7 +11855,7 @@
         <v>1439</v>
       </c>
       <c r="B1439">
-        <v>49.90208496598325</v>
+        <v>49.90208496598324</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -11863,7 +11863,7 @@
         <v>1440</v>
       </c>
       <c r="B1440">
-        <v>57.19134783956823</v>
+        <v>57.19134783956822</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>69.59968254545093</v>
+        <v>69.59968254545092</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>73.85185024538839</v>
+        <v>73.85185024538838</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>71.20453955316046</v>
+        <v>71.20453955316044</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -12039,7 +12039,7 @@
         <v>1462</v>
       </c>
       <c r="B1462">
-        <v>54.0118201411313</v>
+        <v>54.01182014113129</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
@@ -12079,7 +12079,7 @@
         <v>1467</v>
       </c>
       <c r="B1467">
-        <v>82.47546555799848</v>
+        <v>82.47546555799846</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12255,7 +12255,7 @@
         <v>1489</v>
       </c>
       <c r="B1489">
-        <v>65.47734531564045</v>
+        <v>65.47734531564043</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
@@ -12343,7 +12343,7 @@
         <v>1500</v>
       </c>
       <c r="B1500">
-        <v>6.767274046625259</v>
+        <v>6.767274046625258</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
@@ -12455,7 +12455,7 @@
         <v>1514</v>
       </c>
       <c r="B1514">
-        <v>44.53419582186205</v>
+        <v>44.53419582186204</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
@@ -12863,7 +12863,7 @@
         <v>1565</v>
       </c>
       <c r="B1565">
-        <v>37.30149565873871</v>
+        <v>37.3014956587387</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
@@ -13095,7 +13095,7 @@
         <v>1594</v>
       </c>
       <c r="B1594">
-        <v>3.214725530180163</v>
+        <v>3.214725530180162</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
@@ -13223,7 +13223,7 @@
         <v>1610</v>
       </c>
       <c r="B1610">
-        <v>82.33508453047969</v>
+        <v>82.33508453047968</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
@@ -13399,7 +13399,7 @@
         <v>1632</v>
       </c>
       <c r="B1632">
-        <v>65.82170378606753</v>
+        <v>65.82170378606752</v>
       </c>
     </row>
     <row r="1633" spans="1:2">
@@ -13447,7 +13447,7 @@
         <v>1638</v>
       </c>
       <c r="B1638">
-        <v>86.58197695172124</v>
+        <v>86.58197695172123</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -13519,7 +13519,7 @@
         <v>1647</v>
       </c>
       <c r="B1647">
-        <v>5.122324920826859</v>
+        <v>5.122324920826858</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13535,7 +13535,7 @@
         <v>1649</v>
       </c>
       <c r="B1649">
-        <v>4.740424050347261</v>
+        <v>4.74042405034726</v>
       </c>
     </row>
     <row r="1650" spans="1:2">
@@ -13599,7 +13599,7 @@
         <v>1657</v>
       </c>
       <c r="B1657">
-        <v>56.01408147726561</v>
+        <v>56.0140814772656</v>
       </c>
     </row>
     <row r="1658" spans="1:2">
@@ -13655,7 +13655,7 @@
         <v>1664</v>
       </c>
       <c r="B1664">
-        <v>7.900169453674555</v>
+        <v>7.900169453674554</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>7.256233767527847</v>
+        <v>7.256233767527846</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13783,7 +13783,7 @@
         <v>1680</v>
       </c>
       <c r="B1680">
-        <v>40.07834375005496</v>
+        <v>40.07834375005495</v>
       </c>
     </row>
     <row r="1681" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>7.896857750937682</v>
+        <v>7.896857750937681</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13999,7 +13999,7 @@
         <v>1707</v>
       </c>
       <c r="B1707">
-        <v>46.15224102631134</v>
+        <v>46.15224102631133</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14167,7 +14167,7 @@
         <v>1728</v>
       </c>
       <c r="B1728">
-        <v>36.29010750431841</v>
+        <v>36.2901075043184</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14207,7 +14207,7 @@
         <v>1733</v>
       </c>
       <c r="B1733">
-        <v>50.39649580820494</v>
+        <v>50.39649580820493</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>59.56053411610655</v>
+        <v>59.56053411610654</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14567,7 +14567,7 @@
         <v>1778</v>
       </c>
       <c r="B1778">
-        <v>43.82848076076553</v>
+        <v>43.82848076076552</v>
       </c>
     </row>
     <row r="1779" spans="1:2">
@@ -14591,7 +14591,7 @@
         <v>1781</v>
       </c>
       <c r="B1781">
-        <v>54.32013087380303</v>
+        <v>54.32013087380302</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -14767,7 +14767,7 @@
         <v>1803</v>
       </c>
       <c r="B1803">
-        <v>47.95609326927192</v>
+        <v>47.95609326927191</v>
       </c>
     </row>
     <row r="1804" spans="1:2">
@@ -14799,7 +14799,7 @@
         <v>1807</v>
       </c>
       <c r="B1807">
-        <v>6.270928935548404</v>
+        <v>6.270928935548403</v>
       </c>
     </row>
     <row r="1808" spans="1:2">
@@ -14935,7 +14935,7 @@
         <v>1824</v>
       </c>
       <c r="B1824">
-        <v>52.84481126518182</v>
+        <v>52.84481126518181</v>
       </c>
     </row>
     <row r="1825" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>7.000529286295823</v>
+        <v>7.000529286295822</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>35.81122942714577</v>
+        <v>35.81122942714576</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15167,7 +15167,7 @@
         <v>1853</v>
       </c>
       <c r="B1853">
-        <v>42.8938772184745</v>
+        <v>42.89387721847449</v>
       </c>
     </row>
     <row r="1854" spans="1:2">
@@ -15199,7 +15199,7 @@
         <v>1857</v>
       </c>
       <c r="B1857">
-        <v>2.601330776972354</v>
+        <v>2.601330776972353</v>
       </c>
     </row>
     <row r="1858" spans="1:2">
@@ -15303,7 +15303,7 @@
         <v>1870</v>
       </c>
       <c r="B1870">
-        <v>6.526047274703105</v>
+        <v>6.526047274703104</v>
       </c>
     </row>
     <row r="1871" spans="1:2">
@@ -15519,7 +15519,7 @@
         <v>1897</v>
       </c>
       <c r="B1897">
-        <v>37.21005749467637</v>
+        <v>37.21005749467636</v>
       </c>
     </row>
     <row r="1898" spans="1:2">
@@ -15551,7 +15551,7 @@
         <v>1901</v>
       </c>
       <c r="B1901">
-        <v>42.86544932772435</v>
+        <v>42.86544932772434</v>
       </c>
     </row>
     <row r="1902" spans="1:2">
@@ -15695,7 +15695,7 @@
         <v>1919</v>
       </c>
       <c r="B1919">
-        <v>25.81466421971888</v>
+        <v>25.81466421971887</v>
       </c>
     </row>
     <row r="1920" spans="1:2">
@@ -15775,7 +15775,7 @@
         <v>1929</v>
       </c>
       <c r="B1929">
-        <v>3.506301906544336</v>
+        <v>3.506301906544335</v>
       </c>
     </row>
     <row r="1930" spans="1:2">
@@ -15943,7 +15943,7 @@
         <v>1950</v>
       </c>
       <c r="B1950">
-        <v>34.33356525021527</v>
+        <v>34.33356525021526</v>
       </c>
     </row>
     <row r="1951" spans="1:2">
@@ -15967,7 +15967,7 @@
         <v>1953</v>
       </c>
       <c r="B1953">
-        <v>5.848877332772201</v>
+        <v>5.8488773327722</v>
       </c>
     </row>
     <row r="1954" spans="1:2">
@@ -15975,7 +15975,7 @@
         <v>1954</v>
       </c>
       <c r="B1954">
-        <v>7.431695398374394</v>
+        <v>7.431695398374393</v>
       </c>
     </row>
     <row r="1955" spans="1:2">
@@ -15991,7 +15991,7 @@
         <v>1956</v>
       </c>
       <c r="B1956">
-        <v>9.918608311142972</v>
+        <v>9.91860831114297</v>
       </c>
     </row>
     <row r="1957" spans="1:2">
@@ -16143,7 +16143,7 @@
         <v>1975</v>
       </c>
       <c r="B1975">
-        <v>7.307228128254921</v>
+        <v>7.30722812825492</v>
       </c>
     </row>
     <row r="1976" spans="1:2">
@@ -16247,7 +16247,7 @@
         <v>1988</v>
       </c>
       <c r="B1988">
-        <v>35.35521089098872</v>
+        <v>35.35521089098871</v>
       </c>
     </row>
     <row r="1989" spans="1:2">
@@ -16295,7 +16295,7 @@
         <v>1994</v>
       </c>
       <c r="B1994">
-        <v>49.76727228819903</v>
+        <v>49.76727228819902</v>
       </c>
     </row>
     <row r="1995" spans="1:2">
@@ -16319,7 +16319,7 @@
         <v>1997</v>
       </c>
       <c r="B1997">
-        <v>50.21537790631223</v>
+        <v>50.21537790631222</v>
       </c>
     </row>
     <row r="1998" spans="1:2">
@@ -16351,7 +16351,7 @@
         <v>2001</v>
       </c>
       <c r="B2001">
-        <v>4.761085558572885</v>
+        <v>4.761085558572884</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -16407,7 +16407,7 @@
         <v>2008</v>
       </c>
       <c r="B2008">
-        <v>12.17317450446084</v>
+        <v>12.17317450446083</v>
       </c>
     </row>
     <row r="2009" spans="1:2">
@@ -16423,7 +16423,7 @@
         <v>2010</v>
       </c>
       <c r="B2010">
-        <v>52.67658848899021</v>
+        <v>52.6765884889902</v>
       </c>
     </row>
     <row r="2011" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>46.71288592327049</v>
+        <v>46.71288592327048</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16527,7 +16527,7 @@
         <v>2023</v>
       </c>
       <c r="B2023">
-        <v>3.461667187356213</v>
+        <v>3.461667187356212</v>
       </c>
     </row>
     <row r="2024" spans="1:2">
@@ -16535,7 +16535,7 @@
         <v>2024</v>
       </c>
       <c r="B2024">
-        <v>5.839059452977046</v>
+        <v>5.839059452977045</v>
       </c>
     </row>
     <row r="2025" spans="1:2">
@@ -16567,7 +16567,7 @@
         <v>2028</v>
       </c>
       <c r="B2028">
-        <v>7.90960634111945</v>
+        <v>7.909606341119449</v>
       </c>
     </row>
     <row r="2029" spans="1:2">
@@ -16655,7 +16655,7 @@
         <v>2039</v>
       </c>
       <c r="B2039">
-        <v>38.3615336055768</v>
+        <v>38.36153360557679</v>
       </c>
     </row>
     <row r="2040" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>12.38805419000734</v>
+        <v>12.38805419000733</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16887,7 +16887,7 @@
         <v>2068</v>
       </c>
       <c r="B2068">
-        <v>50.50112216900704</v>
+        <v>50.50112216900703</v>
       </c>
     </row>
     <row r="2069" spans="1:2">
@@ -16895,7 +16895,7 @@
         <v>2069</v>
       </c>
       <c r="B2069">
-        <v>48.41211180542897</v>
+        <v>48.41211180542896</v>
       </c>
     </row>
     <row r="2070" spans="1:2">
@@ -16927,7 +16927,7 @@
         <v>2073</v>
       </c>
       <c r="B2073">
-        <v>9.910255786541123</v>
+        <v>9.91025578654112</v>
       </c>
     </row>
     <row r="2074" spans="1:2">
@@ -16943,7 +16943,7 @@
         <v>2075</v>
       </c>
       <c r="B2075">
-        <v>13.15903617141374</v>
+        <v>13.15903617141373</v>
       </c>
     </row>
     <row r="2076" spans="1:2">
@@ -17135,7 +17135,7 @@
         <v>2099</v>
       </c>
       <c r="B2099">
-        <v>3.382215628775122</v>
+        <v>3.382215628775121</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -17271,7 +17271,7 @@
         <v>2116</v>
       </c>
       <c r="B2116">
-        <v>40.77673203518494</v>
+        <v>40.77673203518493</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>0.9348204148596396</v>
+        <v>0.9348204148596394</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17319,7 +17319,7 @@
         <v>2122</v>
       </c>
       <c r="B2122">
-        <v>0.632494192797369</v>
+        <v>0.6324941927973688</v>
       </c>
     </row>
     <row r="2123" spans="1:2">
@@ -17391,7 +17391,7 @@
         <v>2131</v>
       </c>
       <c r="B2131">
-        <v>0.923566486975044</v>
+        <v>0.9235664869750438</v>
       </c>
     </row>
     <row r="2132" spans="1:2">
@@ -17447,7 +17447,7 @@
         <v>2138</v>
       </c>
       <c r="B2138">
-        <v>23.19563488272177</v>
+        <v>23.19563488272176</v>
       </c>
     </row>
     <row r="2139" spans="1:2">
@@ -17455,7 +17455,7 @@
         <v>2139</v>
       </c>
       <c r="B2139">
-        <v>27.99505413315156</v>
+        <v>27.99505413315155</v>
       </c>
     </row>
     <row r="2140" spans="1:2">
@@ -17471,7 +17471,7 @@
         <v>2141</v>
       </c>
       <c r="B2141">
-        <v>33.55399628737609</v>
+        <v>33.55399628737608</v>
       </c>
     </row>
     <row r="2142" spans="1:2">
@@ -17511,7 +17511,7 @@
         <v>2146</v>
       </c>
       <c r="B2146">
-        <v>1.958335848859749</v>
+        <v>1.958335848859748</v>
       </c>
     </row>
     <row r="2147" spans="1:2">
@@ -17671,7 +17671,7 @@
         <v>2166</v>
       </c>
       <c r="B2166">
-        <v>51.93804947156362</v>
+        <v>51.93804947156361</v>
       </c>
     </row>
     <row r="2167" spans="1:2">
@@ -17695,7 +17695,7 @@
         <v>2169</v>
       </c>
       <c r="B2169">
-        <v>2.472948077776365</v>
+        <v>2.472948077776364</v>
       </c>
     </row>
     <row r="2170" spans="1:2">
@@ -17719,7 +17719,7 @@
         <v>2172</v>
       </c>
       <c r="B2172">
-        <v>0.1705717405664829</v>
+        <v>0.1705717405664828</v>
       </c>
     </row>
     <row r="2173" spans="1:2">
@@ -17887,7 +17887,7 @@
         <v>2193</v>
       </c>
       <c r="B2193">
-        <v>0.8169120745854072</v>
+        <v>0.816912074585407</v>
       </c>
     </row>
     <row r="2194" spans="1:2">
@@ -18807,7 +18807,7 @@
         <v>2308</v>
       </c>
       <c r="B2308">
-        <v>3.004710823875443</v>
+        <v>3.004710823875442</v>
       </c>
     </row>
     <row r="2309" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>4.05920972808283</v>
+        <v>4.059209728082829</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -19135,7 +19135,7 @@
         <v>2349</v>
       </c>
       <c r="B2349">
-        <v>2.111201702625507</v>
+        <v>2.111201702625506</v>
       </c>
     </row>
     <row r="2350" spans="1:2">
@@ -19167,7 +19167,7 @@
         <v>2353</v>
       </c>
       <c r="B2353">
-        <v>13.99818647641277</v>
+        <v>13.99818647641276</v>
       </c>
     </row>
     <row r="2354" spans="1:2">
@@ -19255,7 +19255,7 @@
         <v>2364</v>
       </c>
       <c r="B2364">
-        <v>2.334474942719266</v>
+        <v>2.334474942719265</v>
       </c>
     </row>
     <row r="2365" spans="1:2">
@@ -19351,7 +19351,7 @@
         <v>2376</v>
       </c>
       <c r="B2376">
-        <v>46.26653873138926</v>
+        <v>46.26653873138925</v>
       </c>
     </row>
     <row r="2377" spans="1:2">
@@ -19399,7 +19399,7 @@
         <v>2382</v>
       </c>
       <c r="B2382">
-        <v>63.44812144394929</v>
+        <v>63.44812144394928</v>
       </c>
     </row>
     <row r="2383" spans="1:2">
@@ -19415,7 +19415,7 @@
         <v>2384</v>
       </c>
       <c r="B2384">
-        <v>8.195995360099317</v>
+        <v>8.195995360099316</v>
       </c>
     </row>
     <row r="2385" spans="1:2">
@@ -19431,7 +19431,7 @@
         <v>2386</v>
       </c>
       <c r="B2386">
-        <v>7.478528150352477</v>
+        <v>7.478528150352476</v>
       </c>
     </row>
     <row r="2387" spans="1:2">
@@ -19447,7 +19447,7 @@
         <v>2388</v>
       </c>
       <c r="B2388">
-        <v>3.8662517562282</v>
+        <v>3.866251756228199</v>
       </c>
     </row>
     <row r="2389" spans="1:2">
@@ -19559,7 +19559,7 @@
         <v>2402</v>
       </c>
       <c r="B2402">
-        <v>41.20461575163051</v>
+        <v>41.2046157516305</v>
       </c>
     </row>
     <row r="2403" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>2.441017988114212</v>
+        <v>2.441017988114211</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>0.9318955658937994</v>
+        <v>0.9318955658937992</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19767,7 +19767,7 @@
         <v>2428</v>
       </c>
       <c r="B2428">
-        <v>36.48646510022151</v>
+        <v>36.4864651002215</v>
       </c>
     </row>
     <row r="2429" spans="1:2">
@@ -19975,7 +19975,7 @@
         <v>2454</v>
       </c>
       <c r="B2454">
-        <v>5.025054643095159</v>
+        <v>5.025054643095158</v>
       </c>
     </row>
     <row r="2455" spans="1:2">
@@ -20103,7 +20103,7 @@
         <v>2470</v>
       </c>
       <c r="B2470">
-        <v>3.157869748679862</v>
+        <v>3.157869748679861</v>
       </c>
     </row>
     <row r="2471" spans="1:2">
@@ -20143,7 +20143,7 @@
         <v>2475</v>
       </c>
       <c r="B2475">
-        <v>28.25140337066864</v>
+        <v>28.25140337066863</v>
       </c>
     </row>
     <row r="2476" spans="1:2">
@@ -20191,7 +20191,7 @@
         <v>2481</v>
       </c>
       <c r="B2481">
-        <v>0.4766302223061057</v>
+        <v>0.4766302223061056</v>
       </c>
     </row>
     <row r="2482" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>2.241835187398415</v>
+        <v>2.241835187398414</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20319,7 +20319,7 @@
         <v>2497</v>
       </c>
       <c r="B2497">
-        <v>21.51545861807628</v>
+        <v>21.51545861807627</v>
       </c>
     </row>
     <row r="2498" spans="1:2">
@@ -20527,7 +20527,7 @@
         <v>2523</v>
       </c>
       <c r="B2523">
-        <v>26.41387726536587</v>
+        <v>26.41387726536586</v>
       </c>
     </row>
     <row r="2524" spans="1:2">
@@ -20567,7 +20567,7 @@
         <v>2528</v>
       </c>
       <c r="B2528">
-        <v>0.5004510363284999</v>
+        <v>0.5004510363284997</v>
       </c>
     </row>
     <row r="2529" spans="1:2">
@@ -20679,7 +20679,7 @@
         <v>2542</v>
       </c>
       <c r="B2542">
-        <v>0.3344262929268477</v>
+        <v>0.3344262929268476</v>
       </c>
     </row>
     <row r="2543" spans="1:2">
@@ -20783,7 +20783,7 @@
         <v>2555</v>
       </c>
       <c r="B2555">
-        <v>0.2399768239422627</v>
+        <v>0.2399768239422626</v>
       </c>
     </row>
     <row r="2556" spans="1:2">
@@ -20791,7 +20791,7 @@
         <v>2556</v>
       </c>
       <c r="B2556">
-        <v>0.2316975671000797</v>
+        <v>0.2316975671000796</v>
       </c>
     </row>
     <row r="2557" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>0.1840928660061627</v>
+        <v>0.1840928660061626</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>36.83551270726717</v>
+        <v>36.83551270726716</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -21087,7 +21087,7 @@
         <v>2593</v>
       </c>
       <c r="B2593">
-        <v>33.56923598138648</v>
+        <v>33.56923598138647</v>
       </c>
     </row>
     <row r="2594" spans="1:2">
@@ -21103,7 +21103,7 @@
         <v>2595</v>
       </c>
       <c r="B2595">
-        <v>41.43643494321163</v>
+        <v>41.43643494321162</v>
       </c>
     </row>
     <row r="2596" spans="1:2">
@@ -21319,7 +21319,7 @@
         <v>2622</v>
       </c>
       <c r="B2622">
-        <v>33.10061539056699</v>
+        <v>33.10061539056698</v>
       </c>
     </row>
     <row r="2623" spans="1:2">
@@ -21703,7 +21703,7 @@
         <v>2670</v>
       </c>
       <c r="B2670">
-        <v>32.61118675600254</v>
+        <v>32.61118675600253</v>
       </c>
     </row>
     <row r="2671" spans="1:2">
@@ -21919,7 +21919,7 @@
         <v>2697</v>
       </c>
       <c r="B2697">
-        <v>0.9394538679808756</v>
+        <v>0.9394538679808754</v>
       </c>
     </row>
     <row r="2698" spans="1:2">
@@ -22415,7 +22415,7 @@
         <v>2759</v>
       </c>
       <c r="B2759">
-        <v>3.98301125803088</v>
+        <v>3.983011258030879</v>
       </c>
     </row>
     <row r="2760" spans="1:2">
@@ -22631,7 +22631,7 @@
         <v>2786</v>
       </c>
       <c r="B2786">
-        <v>9.522346959768967</v>
+        <v>9.522346959768964</v>
       </c>
     </row>
     <row r="2787" spans="1:2">
@@ -22799,7 +22799,7 @@
         <v>2807</v>
       </c>
       <c r="B2807">
-        <v>5.708408383941818</v>
+        <v>5.708408383941817</v>
       </c>
     </row>
     <row r="2808" spans="1:2">
@@ -22959,7 +22959,7 @@
         <v>2827</v>
       </c>
       <c r="B2827">
-        <v>0.9368777735510424</v>
+        <v>0.9368777735510422</v>
       </c>
     </row>
     <row r="2828" spans="1:2">
@@ -23191,7 +23191,7 @@
         <v>2856</v>
       </c>
       <c r="B2856">
-        <v>4.198682235381764</v>
+        <v>4.198682235381763</v>
       </c>
     </row>
     <row r="2857" spans="1:2">
@@ -23415,7 +23415,7 @@
         <v>2884</v>
       </c>
       <c r="B2884">
-        <v>9.88549128377424</v>
+        <v>9.885491283774238</v>
       </c>
     </row>
     <row r="2885" spans="1:2">
@@ -23607,7 +23607,7 @@
         <v>2908</v>
       </c>
       <c r="B2908">
-        <v>0.8952880624546107</v>
+        <v>0.8952880624546106</v>
       </c>
     </row>
     <row r="2909" spans="1:2">
@@ -24199,7 +24199,7 @@
         <v>2982</v>
       </c>
       <c r="B2982">
-        <v>17.30171253130732</v>
+        <v>17.30171253130731</v>
       </c>
     </row>
     <row r="2983" spans="1:2">
@@ -24575,7 +24575,7 @@
         <v>3029</v>
       </c>
       <c r="B3029">
-        <v>0.8768333791501058</v>
+        <v>0.8768333791501057</v>
       </c>
     </row>
     <row r="3030" spans="1:2">
@@ -24583,7 +24583,7 @@
         <v>3030</v>
       </c>
       <c r="B3030">
-        <v>0.4574487228257207</v>
+        <v>0.4574487228257206</v>
       </c>
     </row>
     <row r="3031" spans="1:2">
@@ -24943,7 +24943,7 @@
         <v>3075</v>
       </c>
       <c r="B3075">
-        <v>0.4701826594555561</v>
+        <v>0.470182659455556</v>
       </c>
     </row>
     <row r="3076" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>0.9234668428218992</v>
+        <v>0.9234668428218989</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -25135,7 +25135,7 @@
         <v>3099</v>
       </c>
       <c r="B3099">
-        <v>0.9477419169542184</v>
+        <v>0.9477419169542182</v>
       </c>
     </row>
     <row r="3100" spans="1:2">
@@ -25511,7 +25511,7 @@
         <v>3146</v>
       </c>
       <c r="B3146">
-        <v>0.3540268839925185</v>
+        <v>0.3540268839925184</v>
       </c>
     </row>
     <row r="3147" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>0.4803229173932387</v>
+        <v>0.4803229173932386</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>4.087813461456177</v>
+        <v>4.087813461456176</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -26263,7 +26263,7 @@
         <v>3240</v>
       </c>
       <c r="B3240">
-        <v>0.4625950502646139</v>
+        <v>0.4625950502646138</v>
       </c>
     </row>
     <row r="3241" spans="1:2">
@@ -26271,7 +26271,7 @@
         <v>3241</v>
       </c>
       <c r="B3241">
-        <v>1.712762833434248</v>
+        <v>1.712762833434247</v>
       </c>
     </row>
     <row r="3242" spans="1:2">
@@ -26279,7 +26279,7 @@
         <v>3242</v>
       </c>
       <c r="B3242">
-        <v>3.271112398018606</v>
+        <v>3.271112398018605</v>
       </c>
     </row>
     <row r="3243" spans="1:2">
@@ -26287,7 +26287,7 @@
         <v>3243</v>
       </c>
       <c r="B3243">
-        <v>6.323447265676517</v>
+        <v>6.323447265676516</v>
       </c>
     </row>
     <row r="3244" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>0.666308729238115</v>
+        <v>0.6663087292381149</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>6.631377005997993</v>
+        <v>6.631377005997992</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27063,7 +27063,7 @@
         <v>3340</v>
       </c>
       <c r="B3340">
-        <v>22.98037420482501</v>
+        <v>22.980374204825</v>
       </c>
     </row>
     <row r="3341" spans="1:2">
@@ -27303,7 +27303,7 @@
         <v>3370</v>
       </c>
       <c r="B3370">
-        <v>0.2311688669463346</v>
+        <v>0.2311688669463345</v>
       </c>
     </row>
     <row r="3371" spans="1:2">
@@ -27831,7 +27831,7 @@
         <v>3436</v>
       </c>
       <c r="B3436">
-        <v>3.913729264491338</v>
+        <v>3.913729264491337</v>
       </c>
     </row>
     <row r="3437" spans="1:2">
@@ -42047,7 +42047,7 @@
         <v>5213</v>
       </c>
       <c r="B5213">
-        <v>0.8261115744889868</v>
+        <v>0.8261115744889866</v>
       </c>
     </row>
     <row r="5214" spans="1:2">
@@ -45503,7 +45503,7 @@
         <v>5645</v>
       </c>
       <c r="B5645">
-        <v>0.4782098752044904</v>
+        <v>0.4782098752044903</v>
       </c>
     </row>
     <row r="5646" spans="1:2">
@@ -50495,7 +50495,7 @@
         <v>6269</v>
       </c>
       <c r="B6269">
-        <v>0.6574491917393825</v>
+        <v>0.6574491917393824</v>
       </c>
     </row>
     <row r="6270" spans="1:2">
@@ -50503,7 +50503,7 @@
         <v>6270</v>
       </c>
       <c r="B6270">
-        <v>0.8981396436607856</v>
+        <v>0.8981396436607855</v>
       </c>
     </row>
     <row r="6271" spans="1:2">
@@ -51455,7 +51455,7 @@
         <v>6389</v>
       </c>
       <c r="B6389">
-        <v>2.768032514473314</v>
+        <v>2.768032514473313</v>
       </c>
     </row>
     <row r="6390" spans="1:2">
@@ -51631,7 +51631,7 @@
         <v>6411</v>
       </c>
       <c r="B6411">
-        <v>14.96294702858205</v>
+        <v>14.96294702858204</v>
       </c>
     </row>
     <row r="6412" spans="1:2">
@@ -51655,7 +51655,7 @@
         <v>6414</v>
       </c>
       <c r="B6414">
-        <v>9.851055436731532</v>
+        <v>9.85105543673153</v>
       </c>
     </row>
     <row r="6415" spans="1:2">
@@ -51799,7 +51799,7 @@
         <v>6432</v>
       </c>
       <c r="B6432">
-        <v>0.5339168182332389</v>
+        <v>0.5339168182332388</v>
       </c>
     </row>
     <row r="6433" spans="1:2">
@@ -51823,7 +51823,7 @@
         <v>6435</v>
       </c>
       <c r="B6435">
-        <v>4.625422974776549</v>
+        <v>4.625422974776548</v>
       </c>
     </row>
     <row r="6436" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>5.504489555241253</v>
+        <v>5.504489555241252</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>6.518896341359769</v>
+        <v>6.518896341359768</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -52215,7 +52215,7 @@
         <v>6484</v>
       </c>
       <c r="B6484">
-        <v>0.4480499346158513</v>
+        <v>0.4480499346158512</v>
       </c>
     </row>
     <row r="6485" spans="1:2">
@@ -52799,7 +52799,7 @@
         <v>6557</v>
       </c>
       <c r="B6557">
-        <v>4.760792487534224</v>
+        <v>4.760792487534223</v>
       </c>
     </row>
     <row r="6558" spans="1:2">
@@ -53191,7 +53191,7 @@
         <v>6606</v>
       </c>
       <c r="B6606">
-        <v>0.6582697906476344</v>
+        <v>0.6582697906476342</v>
       </c>
     </row>
     <row r="6607" spans="1:2">
@@ -53559,7 +53559,7 @@
         <v>6652</v>
       </c>
       <c r="B6652">
-        <v>0.6737263572266337</v>
+        <v>0.6737263572266335</v>
       </c>
     </row>
     <row r="6653" spans="1:2">
@@ -54263,7 +54263,7 @@
         <v>6740</v>
       </c>
       <c r="B6740">
-        <v>6.213809390113308</v>
+        <v>6.213809390113307</v>
       </c>
     </row>
     <row r="6741" spans="1:2">
@@ -54311,7 +54311,7 @@
         <v>6746</v>
       </c>
       <c r="B6746">
-        <v>34.00239497652795</v>
+        <v>34.00239497652794</v>
       </c>
     </row>
     <row r="6747" spans="1:2">
@@ -54367,7 +54367,7 @@
         <v>6753</v>
       </c>
       <c r="B6753">
-        <v>1.290722953499591</v>
+        <v>1.29072295349959</v>
       </c>
     </row>
     <row r="6754" spans="1:2">
@@ -54463,7 +54463,7 @@
         <v>6765</v>
       </c>
       <c r="B6765">
-        <v>2.612405931523366</v>
+        <v>2.612405931523365</v>
       </c>
     </row>
     <row r="6766" spans="1:2">
@@ -54551,7 +54551,7 @@
         <v>6776</v>
       </c>
       <c r="B6776">
-        <v>0.4817443119307462</v>
+        <v>0.4817443119307461</v>
       </c>
     </row>
     <row r="6777" spans="1:2">
@@ -54671,7 +54671,7 @@
         <v>6791</v>
       </c>
       <c r="B6791">
-        <v>0.3786331283985251</v>
+        <v>0.378633128398525</v>
       </c>
     </row>
     <row r="6792" spans="1:2">
@@ -55303,7 +55303,7 @@
         <v>6870</v>
       </c>
       <c r="B6870">
-        <v>0.7478264386417682</v>
+        <v>0.7478264386417681</v>
       </c>
     </row>
     <row r="6871" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>0.6512419471405353</v>
+        <v>0.6512419471405352</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55631,7 +55631,7 @@
         <v>6911</v>
       </c>
       <c r="B6911">
-        <v>0.4749655788065093</v>
+        <v>0.4749655788065092</v>
       </c>
     </row>
     <row r="6912" spans="1:2">
@@ -55671,7 +55671,7 @@
         <v>6916</v>
       </c>
       <c r="B6916">
-        <v>7.056857539926534</v>
+        <v>7.056857539926533</v>
       </c>
     </row>
     <row r="6917" spans="1:2">
@@ -55839,7 +55839,7 @@
         <v>6937</v>
       </c>
       <c r="B6937">
-        <v>7.719960072001693</v>
+        <v>7.719960072001692</v>
       </c>
     </row>
     <row r="6938" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>11.64426920098871</v>
+        <v>11.6442692009887</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>0.3458677862761867</v>
+        <v>0.3458677862761866</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56263,7 +56263,7 @@
         <v>6990</v>
       </c>
       <c r="B6990">
-        <v>31.07578758445575</v>
+        <v>31.07578758445574</v>
       </c>
     </row>
     <row r="6991" spans="1:2">
@@ -56271,7 +56271,7 @@
         <v>6991</v>
       </c>
       <c r="B6991">
-        <v>0.6167826544147343</v>
+        <v>0.6167826544147342</v>
       </c>
     </row>
     <row r="6992" spans="1:2">
@@ -56383,7 +56383,7 @@
         <v>7005</v>
       </c>
       <c r="B7005">
-        <v>0.7297996390537088</v>
+        <v>0.7297996390537087</v>
       </c>
     </row>
     <row r="7006" spans="1:2">
@@ -56599,7 +56599,7 @@
         <v>7032</v>
       </c>
       <c r="B7032">
-        <v>1.76314467569052</v>
+        <v>1.763144675690519</v>
       </c>
     </row>
     <row r="7033" spans="1:2">
@@ -56639,7 +56639,7 @@
         <v>7037</v>
       </c>
       <c r="B7037">
-        <v>9.043205118661534</v>
+        <v>9.043205118661533</v>
       </c>
     </row>
     <row r="7038" spans="1:2">
@@ -57559,7 +57559,7 @@
         <v>7152</v>
       </c>
       <c r="B7152">
-        <v>0.1920098870445603</v>
+        <v>0.1920098870445602</v>
       </c>
     </row>
     <row r="7153" spans="1:2">
@@ -57591,7 +57591,7 @@
         <v>7156</v>
       </c>
       <c r="B7156">
-        <v>6.577246785157242</v>
+        <v>6.577246785157241</v>
       </c>
     </row>
     <row r="7157" spans="1:2">
@@ -57711,7 +57711,7 @@
         <v>7171</v>
       </c>
       <c r="B7171">
-        <v>1.206453307042908</v>
+        <v>1.206453307042907</v>
       </c>
     </row>
     <row r="7172" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>4.632749750743082</v>
+        <v>4.632749750743081</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57743,7 +57743,7 @@
         <v>7175</v>
       </c>
       <c r="B7175">
-        <v>8.143183958932543</v>
+        <v>8.143183958932541</v>
       </c>
     </row>
     <row r="7176" spans="1:2">
@@ -57815,7 +57815,7 @@
         <v>7184</v>
       </c>
       <c r="B7184">
-        <v>0.8650226162920536</v>
+        <v>0.8650226162920535</v>
       </c>
     </row>
     <row r="7185" spans="1:2">
@@ -57903,7 +57903,7 @@
         <v>7195</v>
       </c>
       <c r="B7195">
-        <v>9.366198710370202</v>
+        <v>9.366198710370201</v>
       </c>
     </row>
     <row r="7196" spans="1:2">
@@ -57943,7 +57943,7 @@
         <v>7200</v>
       </c>
       <c r="B7200">
-        <v>22.86294063963341</v>
+        <v>22.8629406396334</v>
       </c>
     </row>
     <row r="7201" spans="1:2">
@@ -58167,7 +58167,7 @@
         <v>7228</v>
       </c>
       <c r="B7228">
-        <v>47.10472190196071</v>
+        <v>47.1047219019607</v>
       </c>
     </row>
     <row r="7229" spans="1:2">
@@ -58375,7 +58375,7 @@
         <v>7254</v>
       </c>
       <c r="B7254">
-        <v>26.75114341665734</v>
+        <v>26.75114341665733</v>
       </c>
     </row>
     <row r="7255" spans="1:2">
@@ -58471,7 +58471,7 @@
         <v>7266</v>
       </c>
       <c r="B7266">
-        <v>0.5710958101978172</v>
+        <v>0.5710958101978171</v>
       </c>
     </row>
     <row r="7267" spans="1:2">
@@ -58695,7 +58695,7 @@
         <v>7294</v>
       </c>
       <c r="B7294">
-        <v>3.363517696508528</v>
+        <v>3.363517696508527</v>
       </c>
     </row>
     <row r="7295" spans="1:2">
@@ -58919,7 +58919,7 @@
         <v>7322</v>
       </c>
       <c r="B7322">
-        <v>26.03373482111824</v>
+        <v>26.03373482111823</v>
       </c>
     </row>
     <row r="7323" spans="1:2">
@@ -58935,7 +58935,7 @@
         <v>7324</v>
       </c>
       <c r="B7324">
-        <v>33.79871060465831</v>
+        <v>33.7987106046583</v>
       </c>
     </row>
     <row r="7325" spans="1:2">
@@ -58967,7 +58967,7 @@
         <v>7328</v>
       </c>
       <c r="B7328">
-        <v>1.859720375060593</v>
+        <v>1.859720375060592</v>
       </c>
     </row>
     <row r="7329" spans="1:2">
@@ -59047,7 +59047,7 @@
         <v>7338</v>
       </c>
       <c r="B7338">
-        <v>2.669381872149518</v>
+        <v>2.669381872149517</v>
       </c>
     </row>
     <row r="7339" spans="1:2">
@@ -59463,7 +59463,7 @@
         <v>7390</v>
       </c>
       <c r="B7390">
-        <v>1.58048522013445</v>
+        <v>1.580485220134449</v>
       </c>
     </row>
     <row r="7391" spans="1:2">
@@ -59487,7 +59487,7 @@
         <v>7393</v>
       </c>
       <c r="B7393">
-        <v>9.115271287068358</v>
+        <v>9.115271287068357</v>
       </c>
     </row>
     <row r="7394" spans="1:2">
@@ -59687,7 +59687,7 @@
         <v>7418</v>
       </c>
       <c r="B7418">
-        <v>33.46724725993233</v>
+        <v>33.46724725993232</v>
       </c>
     </row>
     <row r="7419" spans="1:2">
@@ -59695,7 +59695,7 @@
         <v>7419</v>
       </c>
       <c r="B7419">
-        <v>38.94972718017012</v>
+        <v>38.94972718017011</v>
       </c>
     </row>
     <row r="7420" spans="1:2">
@@ -59711,7 +59711,7 @@
         <v>7421</v>
       </c>
       <c r="B7421">
-        <v>47.73423849300528</v>
+        <v>47.73423849300527</v>
       </c>
     </row>
     <row r="7422" spans="1:2">
@@ -59775,7 +59775,7 @@
         <v>7429</v>
       </c>
       <c r="B7429">
-        <v>0.674330083566276</v>
+        <v>0.6743300835662759</v>
       </c>
     </row>
     <row r="7430" spans="1:2">
@@ -59815,7 +59815,7 @@
         <v>7434</v>
       </c>
       <c r="B7434">
-        <v>0.5190288094692426</v>
+        <v>0.5190288094692425</v>
       </c>
     </row>
     <row r="7435" spans="1:2">
@@ -59839,7 +59839,7 @@
         <v>7437</v>
       </c>
       <c r="B7437">
-        <v>15.98725961580732</v>
+        <v>15.98725961580731</v>
       </c>
     </row>
     <row r="7438" spans="1:2">
@@ -59847,7 +59847,7 @@
         <v>7438</v>
       </c>
       <c r="B7438">
-        <v>21.00220330806866</v>
+        <v>21.00220330806865</v>
       </c>
     </row>
     <row r="7439" spans="1:2">
@@ -59911,7 +59911,7 @@
         <v>7446</v>
       </c>
       <c r="B7446">
-        <v>43.95625973362188</v>
+        <v>43.95625973362187</v>
       </c>
     </row>
     <row r="7447" spans="1:2">
@@ -60111,7 +60111,7 @@
         <v>7471</v>
       </c>
       <c r="B7471">
-        <v>27.72935592950118</v>
+        <v>27.72935592950117</v>
       </c>
     </row>
     <row r="7472" spans="1:2">
@@ -60127,7 +60127,7 @@
         <v>7473</v>
       </c>
       <c r="B7473">
-        <v>1.946120647968344</v>
+        <v>1.946120647968343</v>
       </c>
     </row>
     <row r="7474" spans="1:2">
@@ -60351,7 +60351,7 @@
         <v>7501</v>
       </c>
       <c r="B7501">
-        <v>0.493558005499185</v>
+        <v>0.4935580054991849</v>
       </c>
     </row>
     <row r="7502" spans="1:2">
@@ -60399,7 +60399,7 @@
         <v>7507</v>
       </c>
       <c r="B7507">
-        <v>8.180286752427069</v>
+        <v>8.180286752427067</v>
       </c>
     </row>
     <row r="7508" spans="1:2">
@@ -60407,7 +60407,7 @@
         <v>7508</v>
       </c>
       <c r="B7508">
-        <v>3.667549592015808</v>
+        <v>3.667549592015807</v>
       </c>
     </row>
     <row r="7509" spans="1:2">
@@ -60415,7 +60415,7 @@
         <v>7509</v>
       </c>
       <c r="B7509">
-        <v>1.283422553926537</v>
+        <v>1.283422553926536</v>
       </c>
     </row>
     <row r="7510" spans="1:2">
@@ -60423,7 +60423,7 @@
         <v>7510</v>
       </c>
       <c r="B7510">
-        <v>0.9586969123793794</v>
+        <v>0.9586969123793792</v>
       </c>
     </row>
     <row r="7511" spans="1:2">
@@ -60431,7 +60431,7 @@
         <v>7511</v>
       </c>
       <c r="B7511">
-        <v>0.8657025411017479</v>
+        <v>0.8657025411017478</v>
       </c>
     </row>
     <row r="7512" spans="1:2">
@@ -60599,7 +60599,7 @@
         <v>7532</v>
       </c>
       <c r="B7532">
-        <v>5.441772352967726</v>
+        <v>5.441772352967725</v>
       </c>
     </row>
     <row r="7533" spans="1:2">
@@ -60615,7 +60615,7 @@
         <v>7534</v>
       </c>
       <c r="B7534">
-        <v>5.934717839996108</v>
+        <v>5.934717839996107</v>
       </c>
     </row>
     <row r="7535" spans="1:2">
@@ -60631,7 +60631,7 @@
         <v>7536</v>
       </c>
       <c r="B7536">
-        <v>14.82344521417925</v>
+        <v>14.82344521417924</v>
       </c>
     </row>
     <row r="7537" spans="1:2">
@@ -60671,7 +60671,7 @@
         <v>7541</v>
       </c>
       <c r="B7541">
-        <v>23.38062132232481</v>
+        <v>23.3806213223248</v>
       </c>
     </row>
     <row r="7542" spans="1:2">
@@ -60903,7 +60903,7 @@
         <v>7570</v>
       </c>
       <c r="B7570">
-        <v>0.2530164336654219</v>
+        <v>0.2530164336654218</v>
       </c>
     </row>
     <row r="7571" spans="1:2">
@@ -61007,7 +61007,7 @@
         <v>7583</v>
       </c>
       <c r="B7583">
-        <v>21.29568464618413</v>
+        <v>21.29568464618412</v>
       </c>
     </row>
     <row r="7584" spans="1:2">
@@ -61015,7 +61015,7 @@
         <v>7584</v>
       </c>
       <c r="B7584">
-        <v>26.69891815756789</v>
+        <v>26.69891815756788</v>
       </c>
     </row>
     <row r="7585" spans="1:2">
@@ -61055,7 +61055,7 @@
         <v>7589</v>
       </c>
       <c r="B7589">
-        <v>40.6747433137308</v>
+        <v>40.67474331373079</v>
       </c>
     </row>
     <row r="7590" spans="1:2">
@@ -61279,7 +61279,7 @@
         <v>7617</v>
       </c>
       <c r="B7617">
-        <v>1.400583563052183</v>
+        <v>1.400583563052182</v>
       </c>
     </row>
     <row r="7618" spans="1:2">
@@ -61407,7 +61407,7 @@
         <v>7633</v>
       </c>
       <c r="B7633">
-        <v>43.4466091973898</v>
+        <v>43.44660919738979</v>
       </c>
     </row>
     <row r="7634" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>52.1390962040853</v>
+        <v>52.13909620408529</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61639,7 +61639,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>67.67361967936857</v>
+        <v>67.67361967936856</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -61655,7 +61655,7 @@
         <v>7664</v>
       </c>
       <c r="B7664">
-        <v>9.371239532235178</v>
+        <v>9.371239532235176</v>
       </c>
     </row>
     <row r="7665" spans="1:2">
@@ -61679,7 +61679,7 @@
         <v>7667</v>
       </c>
       <c r="B7667">
-        <v>6.170522797703027</v>
+        <v>6.170522797703026</v>
       </c>
     </row>
     <row r="7668" spans="1:2">
@@ -61719,7 +61719,7 @@
         <v>7672</v>
       </c>
       <c r="B7672">
-        <v>4.464028753785746</v>
+        <v>4.464028753785745</v>
       </c>
     </row>
     <row r="7673" spans="1:2">
@@ -61975,7 +61975,7 @@
         <v>7704</v>
       </c>
       <c r="B7704">
-        <v>40.07834375005496</v>
+        <v>40.07834375005495</v>
       </c>
     </row>
     <row r="7705" spans="1:2">
@@ -62047,7 +62047,7 @@
         <v>7713</v>
       </c>
       <c r="B7713">
-        <v>5.116697956884562</v>
+        <v>5.116697956884561</v>
       </c>
     </row>
     <row r="7714" spans="1:2">
@@ -62055,7 +62055,7 @@
         <v>7714</v>
       </c>
       <c r="B7714">
-        <v>6.03910974396728</v>
+        <v>6.039109743967279</v>
       </c>
     </row>
     <row r="7715" spans="1:2">
@@ -62183,7 +62183,7 @@
         <v>7730</v>
       </c>
       <c r="B7730">
-        <v>52.81433187716104</v>
+        <v>52.81433187716103</v>
       </c>
     </row>
     <row r="7731" spans="1:2">
@@ -62231,7 +62231,7 @@
         <v>7736</v>
       </c>
       <c r="B7736">
-        <v>7.481664010466154</v>
+        <v>7.481664010466153</v>
       </c>
     </row>
     <row r="7737" spans="1:2">
@@ -62303,7 +62303,7 @@
         <v>7745</v>
       </c>
       <c r="B7745">
-        <v>33.78083327129997</v>
+        <v>33.78083327129996</v>
       </c>
     </row>
     <row r="7746" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>91.54279042314184</v>
+        <v>91.54279042314182</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>79.54592745553967</v>
+        <v>79.54592745553965</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>76.57535940766827</v>
+        <v>76.57535940766826</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>17.19207465574411</v>
+        <v>17.1920746557441</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62479,7 +62479,7 @@
         <v>7767</v>
       </c>
       <c r="B7767">
-        <v>11.69089680323973</v>
+        <v>11.69089680323972</v>
       </c>
     </row>
     <row r="7768" spans="1:2">
@@ -62535,7 +62535,7 @@
         <v>7774</v>
       </c>
       <c r="B7774">
-        <v>50.18782922867806</v>
+        <v>50.18782922867805</v>
       </c>
     </row>
     <row r="7775" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>75.96137558167275</v>
+        <v>75.96137558167274</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62687,7 +62687,7 @@
         <v>7793</v>
       </c>
       <c r="B7793">
-        <v>30.30383846862177</v>
+        <v>30.30383846862176</v>
       </c>
     </row>
     <row r="7794" spans="1:2">
@@ -62703,7 +62703,7 @@
         <v>7795</v>
       </c>
       <c r="B7795">
-        <v>95.01480301816279</v>
+        <v>95.01480301816278</v>
       </c>
     </row>
     <row r="7796" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>86.52629345437559</v>
+        <v>86.52629345437558</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -62807,7 +62807,7 @@
         <v>7808</v>
       </c>
       <c r="B7808">
-        <v>25.59087517459708</v>
+        <v>25.59087517459707</v>
       </c>
     </row>
     <row r="7809" spans="1:2">
@@ -62855,7 +62855,7 @@
         <v>7814</v>
       </c>
       <c r="B7814">
-        <v>13.56731343537286</v>
+        <v>13.56731343537285</v>
       </c>
     </row>
     <row r="7815" spans="1:2">
@@ -62863,7 +62863,7 @@
         <v>7815</v>
       </c>
       <c r="B7815">
-        <v>13.88133905329849</v>
+        <v>13.88133905329848</v>
       </c>
     </row>
     <row r="7816" spans="1:2">
@@ -62903,7 +62903,7 @@
         <v>7820</v>
       </c>
       <c r="B7820">
-        <v>67.79553723145169</v>
+        <v>67.79553723145168</v>
       </c>
     </row>
     <row r="7821" spans="1:2">
@@ -62983,7 +62983,7 @@
         <v>7830</v>
       </c>
       <c r="B7830">
-        <v>84.92348794393669</v>
+        <v>84.92348794393668</v>
       </c>
     </row>
     <row r="7831" spans="1:2">
@@ -62999,7 +62999,7 @@
         <v>7832</v>
       </c>
       <c r="B7832">
-        <v>22.02384894884211</v>
+        <v>22.0238489488421</v>
       </c>
     </row>
     <row r="7833" spans="1:2">
@@ -63055,7 +63055,7 @@
         <v>7839</v>
       </c>
       <c r="B7839">
-        <v>14.23343459914623</v>
+        <v>14.23343459914622</v>
       </c>
     </row>
     <row r="7840" spans="1:2">
@@ -63095,7 +63095,7 @@
         <v>7844</v>
       </c>
       <c r="B7844">
-        <v>68.94994405273873</v>
+        <v>68.94994405273872</v>
       </c>
     </row>
     <row r="7845" spans="1:2">
@@ -63119,7 +63119,7 @@
         <v>7847</v>
       </c>
       <c r="B7847">
-        <v>65.92310636544435</v>
+        <v>65.92310636544434</v>
       </c>
     </row>
     <row r="7848" spans="1:2">
@@ -63151,7 +63151,7 @@
         <v>7851</v>
       </c>
       <c r="B7851">
-        <v>89.32072580801152</v>
+        <v>89.3207258080115</v>
       </c>
     </row>
     <row r="7852" spans="1:2">
@@ -63167,7 +63167,7 @@
         <v>7853</v>
       </c>
       <c r="B7853">
-        <v>87.11771081039419</v>
+        <v>87.11771081039417</v>
       </c>
     </row>
     <row r="7854" spans="1:2">
@@ -63271,7 +63271,7 @@
         <v>7866</v>
       </c>
       <c r="B7866">
-        <v>18.39738791644663</v>
+        <v>18.39738791644662</v>
       </c>
     </row>
     <row r="7867" spans="1:2">
@@ -63279,7 +63279,7 @@
         <v>7867</v>
       </c>
       <c r="B7867">
-        <v>62.26880358437604</v>
+        <v>62.26880358437603</v>
       </c>
     </row>
     <row r="7868" spans="1:2">
@@ -63303,7 +63303,7 @@
         <v>7870</v>
       </c>
       <c r="B7870">
-        <v>57.76430172015116</v>
+        <v>57.76430172015115</v>
       </c>
     </row>
     <row r="7871" spans="1:2">
@@ -63311,7 +63311,7 @@
         <v>7871</v>
       </c>
       <c r="B7871">
-        <v>56.75555120507881</v>
+        <v>56.7555512050788</v>
       </c>
     </row>
     <row r="7872" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>67.99160175631613</v>
+        <v>67.99160175631611</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63343,7 +63343,7 @@
         <v>7875</v>
       </c>
       <c r="B7875">
-        <v>71.66085116035617</v>
+        <v>71.66085116035616</v>
       </c>
     </row>
     <row r="7876" spans="1:2">
@@ -63503,7 +63503,7 @@
         <v>7895</v>
       </c>
       <c r="B7895">
-        <v>48.2693862096009</v>
+        <v>48.26938620960089</v>
       </c>
     </row>
     <row r="7896" spans="1:2">
@@ -63583,7 +63583,7 @@
         <v>7905</v>
       </c>
       <c r="B7905">
-        <v>1.438334043542151</v>
+        <v>1.43833404354215</v>
       </c>
     </row>
     <row r="7906" spans="1:2">
@@ -63599,7 +63599,7 @@
         <v>7907</v>
       </c>
       <c r="B7907">
-        <v>4.53117132874306</v>
+        <v>4.531171328743059</v>
       </c>
     </row>
     <row r="7908" spans="1:2">
@@ -63951,7 +63951,7 @@
         <v>7951</v>
       </c>
       <c r="B7951">
-        <v>49.80537152322501</v>
+        <v>49.805371523225</v>
       </c>
     </row>
     <row r="7952" spans="1:2">
@@ -63983,7 +63983,7 @@
         <v>7955</v>
       </c>
       <c r="B7955">
-        <v>2.40753755265754</v>
+        <v>2.407537552657539</v>
       </c>
     </row>
     <row r="7956" spans="1:2">
@@ -64015,7 +64015,7 @@
         <v>7959</v>
       </c>
       <c r="B7959">
-        <v>0.5901981804977636</v>
+        <v>0.5901981804977635</v>
       </c>
     </row>
     <row r="7960" spans="1:2">
@@ -64127,7 +64127,7 @@
         <v>7973</v>
       </c>
       <c r="B7973">
-        <v>60.70702801934973</v>
+        <v>60.70702801934972</v>
       </c>
     </row>
     <row r="7974" spans="1:2">
@@ -64207,7 +64207,7 @@
         <v>7983</v>
       </c>
       <c r="B7983">
-        <v>4.639080085178168</v>
+        <v>4.639080085178167</v>
       </c>
     </row>
     <row r="7984" spans="1:2">
@@ -64511,7 +64511,7 @@
         <v>8021</v>
       </c>
       <c r="B8021">
-        <v>27.01311961811672</v>
+        <v>27.01311961811671</v>
       </c>
     </row>
     <row r="8022" spans="1:2">
@@ -64639,7 +64639,7 @@
         <v>8037</v>
       </c>
       <c r="B8037">
-        <v>9.008183129541504</v>
+        <v>9.008183129541502</v>
       </c>
     </row>
     <row r="8038" spans="1:2">
@@ -64647,7 +64647,7 @@
         <v>8038</v>
       </c>
       <c r="B8038">
-        <v>9.392164804395598</v>
+        <v>9.392164804395597</v>
       </c>
     </row>
     <row r="8039" spans="1:2">
@@ -64695,7 +64695,7 @@
         <v>8044</v>
       </c>
       <c r="B8044">
-        <v>46.06812963821553</v>
+        <v>46.06812963821552</v>
       </c>
     </row>
     <row r="8045" spans="1:2">
@@ -64719,7 +64719,7 @@
         <v>8047</v>
       </c>
       <c r="B8047">
-        <v>45.75747433723451</v>
+        <v>45.7574743372345</v>
       </c>
     </row>
     <row r="8048" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>1.447574573391143</v>
+        <v>1.447574573391142</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -65055,7 +65055,7 @@
         <v>8089</v>
       </c>
       <c r="B8089">
-        <v>5.712980292144935</v>
+        <v>5.712980292144934</v>
       </c>
     </row>
     <row r="8090" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>4.784589855873525</v>
+        <v>4.784589855873524</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65471,7 +65471,7 @@
         <v>8141</v>
       </c>
       <c r="B8141">
-        <v>6.641575878143407</v>
+        <v>6.641575878143406</v>
       </c>
     </row>
     <row r="8142" spans="1:2">
@@ -65855,7 +65855,7 @@
         <v>8189</v>
       </c>
       <c r="B8189">
-        <v>6.83769901721558</v>
+        <v>6.837699017215579</v>
       </c>
     </row>
     <row r="8190" spans="1:2">
@@ -66047,7 +66047,7 @@
         <v>8213</v>
       </c>
       <c r="B8213">
-        <v>32.83040389292123</v>
+        <v>32.83040389292122</v>
       </c>
     </row>
     <row r="8214" spans="1:2">
@@ -66071,7 +66071,7 @@
         <v>8216</v>
       </c>
       <c r="B8216">
-        <v>0.6201295256762468</v>
+        <v>0.6201295256762467</v>
       </c>
     </row>
     <row r="8217" spans="1:2">
@@ -66135,7 +66135,7 @@
         <v>8224</v>
       </c>
       <c r="B8224">
-        <v>0.5410853358388954</v>
+        <v>0.5410853358388953</v>
       </c>
     </row>
     <row r="8225" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>57.51753590559831</v>
+        <v>57.5175359055983</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>54.12406634893859</v>
+        <v>54.12406634893858</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>7.346060040877549</v>
+        <v>7.346060040877548</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66471,7 +66471,7 @@
         <v>8266</v>
       </c>
       <c r="B8266">
-        <v>2.779049054816594</v>
+        <v>2.779049054816593</v>
       </c>
     </row>
     <row r="8267" spans="1:2">
@@ -66551,7 +66551,7 @@
         <v>8276</v>
       </c>
       <c r="B8276">
-        <v>36.65175716602651</v>
+        <v>36.6517571660265</v>
       </c>
     </row>
     <row r="8277" spans="1:2">
@@ -66567,7 +66567,7 @@
         <v>8278</v>
       </c>
       <c r="B8278">
-        <v>29.76634618371686</v>
+        <v>29.76634618371685</v>
       </c>
     </row>
     <row r="8279" spans="1:2">
@@ -66591,7 +66591,7 @@
         <v>8281</v>
       </c>
       <c r="B8281">
-        <v>49.90765331571782</v>
+        <v>49.90765331571781</v>
       </c>
     </row>
     <row r="8282" spans="1:2">
@@ -66623,7 +66623,7 @@
         <v>8285</v>
       </c>
       <c r="B8285">
-        <v>59.50690211603152</v>
+        <v>59.50690211603151</v>
       </c>
     </row>
     <row r="8286" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>7.473370100072038</v>
+        <v>7.473370100072037</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66655,7 +66655,7 @@
         <v>8289</v>
       </c>
       <c r="B8289">
-        <v>7.614776876226137</v>
+        <v>7.614776876226136</v>
       </c>
     </row>
     <row r="8290" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>35.78075003912499</v>
+        <v>35.78075003912498</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66775,7 +66775,7 @@
         <v>8304</v>
       </c>
       <c r="B8304">
-        <v>45.22496425998684</v>
+        <v>45.22496425998683</v>
       </c>
     </row>
     <row r="8305" spans="1:2">
@@ -66951,7 +66951,7 @@
         <v>8326</v>
       </c>
       <c r="B8326">
-        <v>41.83647691098437</v>
+        <v>41.83647691098436</v>
       </c>
     </row>
     <row r="8327" spans="1:2">
@@ -67031,7 +67031,7 @@
         <v>8336</v>
       </c>
       <c r="B8336">
-        <v>5.858196991801632</v>
+        <v>5.858196991801631</v>
       </c>
     </row>
     <row r="8337" spans="1:2">
@@ -67039,7 +67039,7 @@
         <v>8337</v>
       </c>
       <c r="B8337">
-        <v>7.508011096841809</v>
+        <v>7.508011096841808</v>
       </c>
     </row>
     <row r="8338" spans="1:2">
@@ -67111,7 +67111,7 @@
         <v>8346</v>
       </c>
       <c r="B8346">
-        <v>13.91864699652008</v>
+        <v>13.91864699652007</v>
       </c>
     </row>
     <row r="8347" spans="1:2">
@@ -67167,7 +67167,7 @@
         <v>8353</v>
       </c>
       <c r="B8353">
-        <v>65.38795864884874</v>
+        <v>65.38795864884872</v>
       </c>
     </row>
     <row r="8354" spans="1:2">
@@ -67215,7 +67215,7 @@
         <v>8359</v>
       </c>
       <c r="B8359">
-        <v>78.78892496267741</v>
+        <v>78.7889249626774</v>
       </c>
     </row>
     <row r="8360" spans="1:2">
@@ -67223,7 +67223,7 @@
         <v>8360</v>
       </c>
       <c r="B8360">
-        <v>17.19588457924671</v>
+        <v>17.1958845792467</v>
       </c>
     </row>
     <row r="8361" spans="1:2">
@@ -67247,7 +67247,7 @@
         <v>8363</v>
       </c>
       <c r="B8363">
-        <v>7.913416264622048</v>
+        <v>7.913416264622047</v>
       </c>
     </row>
     <row r="8364" spans="1:2">
@@ -67415,7 +67415,7 @@
         <v>8384</v>
       </c>
       <c r="B8384">
-        <v>5.736865581795835</v>
+        <v>5.736865581795834</v>
       </c>
     </row>
     <row r="8385" spans="1:2">
@@ -67447,7 +67447,7 @@
         <v>8388</v>
       </c>
       <c r="B8388">
-        <v>4.36520519954914</v>
+        <v>4.365205199549139</v>
       </c>
     </row>
     <row r="8389" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>3.443877775309469</v>
+        <v>3.443877775309468</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>48.04225615463835</v>
+        <v>48.04225615463834</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67607,7 +67607,7 @@
         <v>8408</v>
       </c>
       <c r="B8408">
-        <v>2.668907097066887</v>
+        <v>2.668907097066886</v>
       </c>
     </row>
     <row r="8409" spans="1:2">
@@ -67695,7 +67695,7 @@
         <v>8419</v>
       </c>
       <c r="B8419">
-        <v>56.04954307294363</v>
+        <v>56.04954307294362</v>
       </c>
     </row>
     <row r="8420" spans="1:2">
@@ -67751,7 +67751,7 @@
         <v>8426</v>
       </c>
       <c r="B8426">
-        <v>56.49589026482486</v>
+        <v>56.49589026482485</v>
       </c>
     </row>
     <row r="8427" spans="1:2">
@@ -67759,7 +67759,7 @@
         <v>8427</v>
       </c>
       <c r="B8427">
-        <v>59.04326373286927</v>
+        <v>59.04326373286926</v>
       </c>
     </row>
     <row r="8428" spans="1:2">
@@ -67775,7 +67775,7 @@
         <v>8429</v>
       </c>
       <c r="B8429">
-        <v>61.45611759416813</v>
+        <v>61.45611759416812</v>
       </c>
     </row>
     <row r="8430" spans="1:2">
@@ -67791,7 +67791,7 @@
         <v>8431</v>
       </c>
       <c r="B8431">
-        <v>60.99980598697241</v>
+        <v>60.9998059869724</v>
       </c>
     </row>
     <row r="8432" spans="1:2">
@@ -67871,7 +67871,7 @@
         <v>8441</v>
       </c>
       <c r="B8441">
-        <v>9.639956367583766</v>
+        <v>9.639956367583764</v>
       </c>
     </row>
     <row r="8442" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>51.25021174382544</v>
+        <v>51.25021174382543</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -67959,7 +67959,7 @@
         <v>8452</v>
       </c>
       <c r="B8452">
-        <v>53.64489520072729</v>
+        <v>53.64489520072728</v>
       </c>
     </row>
     <row r="8453" spans="1:2">
@@ -68015,7 +68015,7 @@
         <v>8459</v>
       </c>
       <c r="B8459">
-        <v>5.350216960489922</v>
+        <v>5.350216960489921</v>
       </c>
     </row>
     <row r="8460" spans="1:2">
@@ -68071,7 +68071,7 @@
         <v>8466</v>
       </c>
       <c r="B8466">
-        <v>5.721274202539051</v>
+        <v>5.72127420253905</v>
       </c>
     </row>
     <row r="8467" spans="1:2">
@@ -68327,7 +68327,7 @@
         <v>8498</v>
       </c>
       <c r="B8498">
-        <v>26.40224234513101</v>
+        <v>26.402242345131</v>
       </c>
     </row>
     <row r="8499" spans="1:2">
@@ -68367,7 +68367,7 @@
         <v>8503</v>
       </c>
       <c r="B8503">
-        <v>30.87063785739281</v>
+        <v>30.8706378573928</v>
       </c>
     </row>
     <row r="8504" spans="1:2">
@@ -68479,7 +68479,7 @@
         <v>8517</v>
       </c>
       <c r="B8517">
-        <v>17.94638089505068</v>
+        <v>17.94638089505067</v>
       </c>
     </row>
     <row r="8518" spans="1:2">
@@ -68495,7 +68495,7 @@
         <v>8519</v>
       </c>
       <c r="B8519">
-        <v>14.67878534949601</v>
+        <v>14.678785349496</v>
       </c>
     </row>
     <row r="8520" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>0.2735387331476826</v>
+        <v>0.2735387331476825</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68695,7 +68695,7 @@
         <v>8544</v>
       </c>
       <c r="B8544">
-        <v>77.81798061159238</v>
+        <v>77.81798061159236</v>
       </c>
     </row>
     <row r="8545" spans="1:2">
@@ -68711,7 +68711,7 @@
         <v>8546</v>
       </c>
       <c r="B8546">
-        <v>85.77720387955719</v>
+        <v>85.77720387955718</v>
       </c>
     </row>
     <row r="8547" spans="1:2">
@@ -68831,7 +68831,7 @@
         <v>8561</v>
       </c>
       <c r="B8561">
-        <v>55.08446014263182</v>
+        <v>55.08446014263181</v>
       </c>
     </row>
     <row r="8562" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>89.36966867146796</v>
+        <v>89.36966867146795</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -68879,7 +68879,7 @@
         <v>8567</v>
       </c>
       <c r="B8567">
-        <v>88.5285547905099</v>
+        <v>88.52855479050989</v>
       </c>
     </row>
     <row r="8568" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>93.95974727898196</v>
+        <v>93.95974727898194</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -69031,7 +69031,7 @@
         <v>8586</v>
       </c>
       <c r="B8586">
-        <v>56.0088061985697</v>
+        <v>56.00880619856969</v>
       </c>
     </row>
     <row r="8587" spans="1:2">
@@ -69047,7 +69047,7 @@
         <v>8588</v>
       </c>
       <c r="B8588">
-        <v>92.42962338613108</v>
+        <v>92.42962338613106</v>
       </c>
     </row>
     <row r="8589" spans="1:2">
@@ -69175,7 +69175,7 @@
         <v>8604</v>
       </c>
       <c r="B8604">
-        <v>19.62922410614799</v>
+        <v>19.62922410614798</v>
       </c>
     </row>
     <row r="8605" spans="1:2">
@@ -69231,7 +69231,7 @@
         <v>8611</v>
       </c>
       <c r="B8611">
-        <v>78.03719774851106</v>
+        <v>78.03719774851105</v>
       </c>
     </row>
     <row r="8612" spans="1:2">
@@ -69247,7 +69247,7 @@
         <v>8613</v>
       </c>
       <c r="B8613">
-        <v>69.81889968236962</v>
+        <v>69.8188996823696</v>
       </c>
     </row>
     <row r="8614" spans="1:2">
@@ -69431,7 +69431,7 @@
         <v>8636</v>
       </c>
       <c r="B8636">
-        <v>91.15535051003154</v>
+        <v>91.15535051003152</v>
       </c>
     </row>
     <row r="8637" spans="1:2">
@@ -69439,7 +69439,7 @@
         <v>8637</v>
       </c>
       <c r="B8637">
-        <v>75.73688316605816</v>
+        <v>75.73688316605815</v>
       </c>
     </row>
     <row r="8638" spans="1:2">
@@ -69631,7 +69631,7 @@
         <v>8661</v>
       </c>
       <c r="B8661">
-        <v>55.43057703929087</v>
+        <v>55.43057703929086</v>
       </c>
     </row>
     <row r="8662" spans="1:2">
@@ -69831,7 +69831,7 @@
         <v>8686</v>
       </c>
       <c r="B8686">
-        <v>51.07436912062863</v>
+        <v>51.07436912062862</v>
       </c>
     </row>
     <row r="8687" spans="1:2">
@@ -69839,7 +69839,7 @@
         <v>8687</v>
       </c>
       <c r="B8687">
-        <v>52.30731898027691</v>
+        <v>52.3073189802769</v>
       </c>
     </row>
     <row r="8688" spans="1:2">
@@ -69847,7 +69847,7 @@
         <v>8688</v>
       </c>
       <c r="B8688">
-        <v>57.90966495532719</v>
+        <v>57.90966495532718</v>
       </c>
     </row>
     <row r="8689" spans="1:2">
@@ -69903,7 +69903,7 @@
         <v>8695</v>
       </c>
       <c r="B8695">
-        <v>63.15299890801732</v>
+        <v>63.15299890801731</v>
       </c>
     </row>
     <row r="8696" spans="1:2">
@@ -69967,7 +69967,7 @@
         <v>8703</v>
       </c>
       <c r="B8703">
-        <v>32.20381801226327</v>
+        <v>32.20381801226326</v>
       </c>
     </row>
     <row r="8704" spans="1:2">
@@ -69991,7 +69991,7 @@
         <v>8706</v>
       </c>
       <c r="B8706">
-        <v>38.77417762801197</v>
+        <v>38.77417762801196</v>
       </c>
     </row>
     <row r="8707" spans="1:2">
@@ -69999,7 +69999,7 @@
         <v>8707</v>
       </c>
       <c r="B8707">
-        <v>88.04440143464136</v>
+        <v>88.04440143464134</v>
       </c>
     </row>
     <row r="8708" spans="1:2">
@@ -70071,7 +70071,7 @@
         <v>8716</v>
       </c>
       <c r="B8716">
-        <v>68.11674308982452</v>
+        <v>68.11674308982451</v>
       </c>
     </row>
     <row r="8717" spans="1:2">
@@ -70135,7 +70135,7 @@
         <v>8724</v>
       </c>
       <c r="B8724">
-        <v>26.00331404730519</v>
+        <v>26.00331404730518</v>
       </c>
     </row>
     <row r="8725" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>85.07910866546587</v>
+        <v>85.07910866546585</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70247,7 +70247,7 @@
         <v>8738</v>
       </c>
       <c r="B8738">
-        <v>92.14680983382289</v>
+        <v>92.14680983382286</v>
       </c>
     </row>
     <row r="8739" spans="1:2">
@@ -70295,7 +70295,7 @@
         <v>8744</v>
       </c>
       <c r="B8744">
-        <v>34.17061775271956</v>
+        <v>34.17061775271955</v>
       </c>
     </row>
     <row r="8745" spans="1:2">
